--- a/Project-Management/Mantid Payments.xlsx
+++ b/Project-Management/Mantid Payments.xlsx
@@ -12,13 +12,14 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>Slack</t>
   </si>
@@ -93,6 +94,15 @@
   </si>
   <si>
     <t>Sum of GBP</t>
+  </si>
+  <si>
+    <t>Code Signing Certificate</t>
+  </si>
+  <si>
+    <t>Linode 2nd server</t>
+  </si>
+  <si>
+    <t>1year</t>
   </si>
 </sst>
 </file>
@@ -141,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -156,6 +166,7 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,12 +201,212 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
+    <c:name>[Mantid Payments.xlsx]Data!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total by facility</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Data!$I$7:$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ESS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ISIS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ORNL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$J$7:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011.5333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2708.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="99169024"/>
+        <c:axId val="99170560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="99169024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99170560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="99170560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99169024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
     <c:name>[Mantid Payments.xlsx]Summary!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -276,11 +487,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="9515392"/>
-        <c:axId val="9592832"/>
+        <c:axId val="100059776"/>
+        <c:axId val="100110720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="9515392"/>
+        <c:axId val="100059776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9592832"/>
+        <c:crossAx val="100110720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -297,7 +508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9592832"/>
+        <c:axId val="100110720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,14 +519,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="9515392"/>
+        <c:crossAx val="100059776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -342,6 +552,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -414,6 +659,47 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Nicholas Draper" refreshedDate="43045.393421643515" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="8">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A6:G33" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Funded by " numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="ESS"/>
+        <s v="ORNL"/>
+        <s v="ISIS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Value" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="4063.08"/>
+    </cacheField>
+    <cacheField name="Currency" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="GBP" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5" maxValue="2708.72"/>
+    </cacheField>
+    <cacheField name="Duration" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Expires" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2015-11-30T00:00:00" maxDate="2018-12-02T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
   <r>
@@ -459,8 +745,196 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="8">
+  <r>
+    <s v="Slack"/>
+    <x v="0"/>
+    <n v="2300"/>
+    <s v="EUR"/>
+    <n v="1840"/>
+    <s v="1 year"/>
+    <d v="2016-08-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="Linode"/>
+    <x v="1"/>
+    <n v="4063.08"/>
+    <s v="USD"/>
+    <n v="2708.72"/>
+    <s v="2 year"/>
+    <d v="2016-01-31T00:00:00"/>
+  </r>
+  <r>
+    <s v="GithubLFS"/>
+    <x v="2"/>
+    <n v="5"/>
+    <s v="GBP"/>
+    <n v="5"/>
+    <s v="1 month"/>
+    <d v="2015-11-30T00:00:00"/>
+  </r>
+  <r>
+    <s v="GithubLFS"/>
+    <x v="2"/>
+    <n v="60"/>
+    <s v="GBP"/>
+    <n v="60"/>
+    <s v="1 year"/>
+    <d v="2016-11-25T00:00:00"/>
+  </r>
+  <r>
+    <s v="Code Signing Certificate"/>
+    <x v="2"/>
+    <n v="133.19999999999999"/>
+    <s v="GBP"/>
+    <n v="133.19999999999999"/>
+    <s v="1 year"/>
+    <d v="2017-11-01T00:00:00"/>
+  </r>
+  <r>
+    <s v="Linode"/>
+    <x v="2"/>
+    <n v="2000"/>
+    <s v="USD"/>
+    <n v="1333.3333333333333"/>
+    <s v="2 year"/>
+    <d v="2018-01-31T00:00:00"/>
+  </r>
+  <r>
+    <s v="Linode 2nd server"/>
+    <x v="2"/>
+    <n v="720"/>
+    <s v="USD"/>
+    <n v="480"/>
+    <s v="1year"/>
+    <d v="2018-12-01T00:00:00"/>
+  </r>
+  <r>
+    <m/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I6:J10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of GBP" fld="4" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -813,25 +1287,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -839,7 +1318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -848,7 +1327,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -870,8 +1349,14 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -894,8 +1379,14 @@
       <c r="G7" s="8">
         <v>42583</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -918,8 +1409,14 @@
       <c r="G8" s="2">
         <v>42400</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2011.5333333333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -942,8 +1439,14 @@
       <c r="G9" s="7">
         <v>42338</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2708.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -965,6 +1468,85 @@
       </c>
       <c r="G10" s="6">
         <v>42699</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="5">
+        <v>6560.2533333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <f>111*1.2</f>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>C11</f>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <f>C12/B$2</f>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="10">
+        <v>43131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>720</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <f>C13/B$2</f>
+        <v>480</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="10">
+        <v>43435</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.25">
@@ -984,7 +1566,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
